--- a/app/scripts/lectures/halls.xlsx
+++ b/app/scripts/lectures/halls.xlsx
@@ -64,7 +64,7 @@
     <row r="1" spans="1:3" customHeight="0">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>hall</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
